--- a/How to Build a Brain.xlsx
+++ b/How to Build a Brain.xlsx
@@ -265,6 +265,9 @@
                 <c:pt idx="2">
                   <c:v>20.759803922008036</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.488218093304202</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -301,6 +304,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20.614952147877801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.005128020118157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,7 +763,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,10 +928,42 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="A5" s="12">
+        <v>42972.795138888891</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="C5" s="12">
+        <v>42972.836111111108</v>
+      </c>
+      <c r="D5">
+        <v>69</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5" si="10">C5-A5</f>
+        <v>4.0972222217533272E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5" si="11">D5-B5+1</f>
+        <v>17</v>
+      </c>
+      <c r="G5" s="2">
+        <f>F5/(E5*24*60)</f>
+        <v>0.28813559325331384</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5" si="12">G5*60</f>
+        <v>17.288135595198831</v>
+      </c>
+      <c r="I5" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H5)</f>
+        <v>21.488218093304202</v>
+      </c>
+      <c r="J5" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H5)</f>
+        <v>21.005128020118157</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -1798,7 +1836,7 @@
       </c>
       <c r="B26">
         <f>MAX(Sheet1!D2:D1000)</f>
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1845,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26/B25*100</f>
-        <v>13.506493506493506</v>
+        <v>17.922077922077921</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1816,7 +1854,7 @@
       </c>
       <c r="B28">
         <f>B25-B26</f>
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +1863,7 @@
       </c>
       <c r="B29" s="4">
         <f>B28/B25*100</f>
-        <v>86.493506493506487</v>
+        <v>82.077922077922082</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +1872,7 @@
       </c>
       <c r="B30" s="4">
         <f>B25/H38</f>
-        <v>20.759803922008036</v>
+        <v>21.488218093304202</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1843,7 +1881,7 @@
       </c>
       <c r="B31" s="4">
         <f>B25/H39</f>
-        <v>20.614952147877801</v>
+        <v>21.005128020118157</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1852,7 +1890,7 @@
       </c>
       <c r="B32" s="2">
         <f>ABS(B30-B31)</f>
-        <v>0.14485177413023465</v>
+        <v>0.48309007318604458</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1861,7 +1899,7 @@
       </c>
       <c r="B33" s="2">
         <f>B28/H38</f>
-        <v>17.955882353321236</v>
+        <v>17.637082902556177</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1870,7 +1908,7 @@
       </c>
       <c r="B34" s="2">
         <f>B28/H39</f>
-        <v>17.830594974657945</v>
+        <v>17.24057260872036</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,19 +1973,19 @@
       </c>
       <c r="E38" s="11">
         <f>MEDIAN(Sheet1!E2:E1000)</f>
-        <v>4.0972222224809229E-2</v>
+        <v>4.0972222221171251E-2</v>
       </c>
       <c r="F38" s="4">
         <f>MEDIAN(Sheet1!F2:F1000)</f>
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="G38" s="4">
         <f>MEDIAN(Sheet1!G2:G1000)</f>
-        <v>0.30909090908436676</v>
+        <v>0.2986132511688403</v>
       </c>
       <c r="H38" s="4">
         <f>MEDIAN(Sheet1!H2:H1000)</f>
-        <v>18.545454545062007</v>
+        <v>17.916795070130419</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1956,19 +1994,19 @@
       </c>
       <c r="E39" s="11">
         <f>AVERAGE(Sheet1!E2:E1000)</f>
-        <v>4.2592592593185451E-2</v>
+        <v>4.2187499999272404E-2</v>
       </c>
       <c r="F39" s="4">
         <f>AVERAGE(Sheet1!F2:F1000)</f>
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="G39" s="4">
         <f>AVERAGE(Sheet1!G2:G1000)</f>
-        <v>0.31126274854473662</v>
+        <v>0.30548095972188094</v>
       </c>
       <c r="H39" s="4">
         <f>AVERAGE(Sheet1!H2:H1000)</f>
-        <v>18.675764912684198</v>
+        <v>18.328857583312853</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1977,11 +2015,11 @@
       </c>
       <c r="E40" s="3" t="str">
         <f>TEXT(SUM(Sheet1!E2:E1000), "d:h:mm:ss")</f>
-        <v>0:3:04:00</v>
+        <v>0:4:03:00</v>
       </c>
       <c r="F40" s="4">
         <f>SUM(Sheet1!F2:F1000)</f>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>

--- a/How to Build a Brain.xlsx
+++ b/How to Build a Brain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -252,10 +252,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$100</c:f>
+              <c:f>Sheet1!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20.759803922008036</c:v>
                 </c:pt>
@@ -292,10 +292,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$100</c:f>
+              <c:f>Sheet1!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20.759803922008036</c:v>
                 </c:pt>
@@ -323,11 +323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119875584"/>
-        <c:axId val="51040192"/>
+        <c:axId val="54086144"/>
+        <c:axId val="52542784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119875584"/>
+        <c:axId val="54086144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,7 +375,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51040192"/>
+        <c:crossAx val="52542784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -383,7 +383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51040192"/>
+        <c:axId val="52542784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,7 +414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119875584"/>
+        <c:crossAx val="54086144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -762,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -827,19 +827,19 @@
         <v>12</v>
       </c>
       <c r="E2" s="11">
-        <f t="shared" ref="E2:E9" si="0">C2-A2</f>
+        <f t="shared" ref="E2" si="0">C2-A2</f>
         <v>3.8194444445252884E-2</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F9" si="1">D2-B2+1</f>
+        <f t="shared" ref="F2" si="1">D2-B2+1</f>
         <v>17</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G9" si="2">F2/(E2*24*60)</f>
+        <f t="shared" ref="G2" si="2">F2/(E2*24*60)</f>
         <v>0.30909090908436676</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H9" si="3">G2*60</f>
+        <f t="shared" ref="H2" si="3">G2*60</f>
         <v>18.545454545062007</v>
       </c>
       <c r="I2" s="2">
@@ -1813,7 +1813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>

--- a/How to Build a Brain.xlsx
+++ b/How to Build a Brain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="525" windowWidth="27555" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -252,10 +252,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$5</c:f>
+              <c:f>Sheet1!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>20.759803922008036</c:v>
                 </c:pt>
@@ -266,6 +266,12 @@
                   <c:v>20.759803922008036</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>21.488218093304202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.759803922008036</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21.488218093304202</c:v>
                 </c:pt>
               </c:numCache>
@@ -292,10 +298,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$5</c:f>
+              <c:f>Sheet1!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>20.759803922008036</c:v>
                 </c:pt>
@@ -307,6 +313,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21.005128020118157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.102328030009666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.9059363123149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,11 +335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54086144"/>
-        <c:axId val="52542784"/>
+        <c:axId val="149926400"/>
+        <c:axId val="144349376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54086144"/>
+        <c:axId val="149926400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,7 +387,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52542784"/>
+        <c:crossAx val="144349376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -383,7 +395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52542784"/>
+        <c:axId val="144349376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,7 +426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54086144"/>
+        <c:crossAx val="149926400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -763,7 +775,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,16 +978,80 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="A6" s="12">
+        <v>43021.753472222219</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43021.794444444444</v>
+      </c>
+      <c r="D6">
+        <v>96</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" ref="E6" si="13">C6-A6</f>
+        <v>4.0972222224809229E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6" si="14">D6-B6+1</f>
+        <v>27</v>
+      </c>
+      <c r="G6" s="2">
+        <f>F6/(E6*24*60)</f>
+        <v>0.45762711861517297</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6" si="15">G6*60</f>
+        <v>27.457627116910377</v>
+      </c>
+      <c r="I6" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H6)</f>
+        <v>20.759803922008036</v>
+      </c>
+      <c r="J6" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H6)</f>
+        <v>19.102328030009666</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="12">
+        <v>43022.845138888886</v>
+      </c>
+      <c r="B7">
+        <v>97</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43022.883333333331</v>
+      </c>
+      <c r="D7">
+        <v>110</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" ref="E7" si="16">C7-A7</f>
+        <v>3.8194444445252884E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7" si="17">D7-B7+1</f>
+        <v>14</v>
+      </c>
+      <c r="G7" s="2">
+        <f>F7/(E7*24*60)</f>
+        <v>0.25454545454006672</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7" si="18">G7*60</f>
+        <v>15.272727272404003</v>
+      </c>
+      <c r="I7" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H7)</f>
+        <v>21.488218093304202</v>
+      </c>
+      <c r="J7" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H7)</f>
+        <v>19.9059363123149</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -1814,7 +1890,7 @@
   <dimension ref="A25:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1912,7 @@
       </c>
       <c r="B26">
         <f>MAX(Sheet1!D2:D1000)</f>
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1921,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26/B25*100</f>
-        <v>17.922077922077921</v>
+        <v>28.571428571428569</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1930,7 @@
       </c>
       <c r="B28">
         <f>B25-B26</f>
-        <v>316</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +1939,7 @@
       </c>
       <c r="B29" s="4">
         <f>B28/B25*100</f>
-        <v>82.077922077922082</v>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1881,7 +1957,7 @@
       </c>
       <c r="B31" s="4">
         <f>B25/H39</f>
-        <v>21.005128020118157</v>
+        <v>19.9059363123149</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,7 +1966,7 @@
       </c>
       <c r="B32" s="2">
         <f>ABS(B30-B31)</f>
-        <v>0.48309007318604458</v>
+        <v>1.5822817809893017</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1899,7 +1975,7 @@
       </c>
       <c r="B33" s="2">
         <f>B28/H38</f>
-        <v>17.637082902556177</v>
+        <v>15.348727209503002</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1908,7 +1984,7 @@
       </c>
       <c r="B34" s="2">
         <f>B28/H39</f>
-        <v>17.24057260872036</v>
+        <v>14.218525937367785</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,15 +2011,15 @@
       </c>
       <c r="F36" s="4">
         <f>MIN(Sheet1!F2:F1000)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G36" s="4">
         <f>MIN(Sheet1!G2:G1000)</f>
-        <v>0.28571428572378899</v>
+        <v>0.25454545454006672</v>
       </c>
       <c r="H36" s="4">
         <f>MIN(Sheet1!H2:H1000)</f>
-        <v>17.142857143427339</v>
+        <v>15.272727272404003</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1956,15 +2032,15 @@
       </c>
       <c r="F37" s="4">
         <f>MAX(Sheet1!F2:F1000)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G37" s="4">
         <f>MAX(Sheet1!G2:G1000)</f>
-        <v>0.33898305082605407</v>
+        <v>0.45762711861517297</v>
       </c>
       <c r="H37" s="4">
         <f>MAX(Sheet1!H2:H1000)</f>
-        <v>20.338983049563243</v>
+        <v>27.457627116910377</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1994,19 +2070,19 @@
       </c>
       <c r="E39" s="11">
         <f>AVERAGE(Sheet1!E2:E1000)</f>
-        <v>4.2187499999272404E-2</v>
+        <v>4.1319444444525288E-2</v>
       </c>
       <c r="F39" s="4">
         <f>AVERAGE(Sheet1!F2:F1000)</f>
-        <v>18.5</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G39" s="4">
         <f>AVERAGE(Sheet1!G2:G1000)</f>
-        <v>0.30548095972188094</v>
+        <v>0.32234940200712725</v>
       </c>
       <c r="H39" s="4">
         <f>AVERAGE(Sheet1!H2:H1000)</f>
-        <v>18.328857583312853</v>
+        <v>19.340964120427632</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,11 +2091,11 @@
       </c>
       <c r="E40" s="3" t="str">
         <f>TEXT(SUM(Sheet1!E2:E1000), "d:h:mm:ss")</f>
-        <v>0:4:03:00</v>
+        <v>0:5:57:00</v>
       </c>
       <c r="F40" s="4">
         <f>SUM(Sheet1!F2:F1000)</f>
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
